--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Smith.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Smith.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Previously Relocated Items/Security/Slave/PROGRAMS/Damalas SEAWISE/WP4 Effects of Fishing/Extraction/Chris Papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE912F7D-50A4-A64E-868E-C15D0A2F1386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1255E21-193A-4C26-8603-F65ACE78764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4920" windowWidth="38040" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$33</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -5370,23 +5371,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH46" sqref="AH46"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW29" sqref="AW29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
   <cols>
-    <col min="19" max="19" width="18.1640625" customWidth="1"/>
-    <col min="24" max="25" width="32.6640625" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.1640625" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="41" width="15.83203125" customWidth="1"/>
-    <col min="42" max="42" width="15.5" customWidth="1"/>
-    <col min="46" max="46" width="15.1640625" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.6328125" customWidth="1"/>
+    <col min="34" max="35" width="17.6328125" customWidth="1"/>
+    <col min="36" max="36" width="18.6328125" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.6328125" customWidth="1"/>
+    <col min="39" max="39" width="14.36328125" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.6328125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5456,7 +5457,7 @@
       <c r="AW1" s="12"/>
       <c r="AX1" s="12"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="64">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>238</v>
       </c>
       <c r="AW28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX28" t="s">
         <v>396</v>
@@ -9013,7 +9014,7 @@
         <v>238</v>
       </c>
       <c r="AW29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX29" t="s">
         <v>396</v>
@@ -9588,14 +9589,14 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="19" max="19" width="32.1640625" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
@@ -9664,7 +9665,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="96">
+    <row r="2" spans="1:50" ht="87">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="16">
+    <row r="3" spans="1:50">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16">
+    <row r="4" spans="1:50">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -9930,7 +9931,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="16">
+    <row r="5" spans="1:50">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -9986,7 +9987,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="16">
+    <row r="6" spans="1:50">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="16">
+    <row r="7" spans="1:50">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="16">
+    <row r="8" spans="1:50">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="16">
+    <row r="9" spans="1:50">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -10663,35 +10664,35 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" customWidth="1"/>
-    <col min="19" max="19" width="17.83203125" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.83203125" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.453125" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.6328125" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5" customWidth="1"/>
-    <col min="30" max="30" width="15.1640625" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.83203125" customWidth="1"/>
-    <col min="33" max="33" width="12.5" customWidth="1"/>
+    <col min="28" max="28" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -10741,7 +10742,7 @@
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
     </row>
-    <row r="2" spans="1:33" ht="48">
+    <row r="2" spans="1:33" ht="43.5">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -10842,7 +10843,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="16">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -10908,7 +10909,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="16">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -10959,7 +10960,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="16">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="16">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="16">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -11100,7 +11101,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="16">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="16">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -11574,6 +11575,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -11687,31 +11697,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11725,12 +11734,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Smith.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Smith.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1255E21-193A-4C26-8603-F65ACE78764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9A9629-67A2-497B-90FC-4EF98938CD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3474,7 +3474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="430">
   <si>
     <t>SearchID</t>
   </si>
@@ -4853,9 +4853,6 @@
     <t>Abundance _ biomass _ species richness _ Abundance-biomass variable W</t>
   </si>
   <si>
-    <t>Biomass _ production _ species richness</t>
-  </si>
-  <si>
     <t>Normalised Size Spectra _ P:B Ratio</t>
   </si>
   <si>
@@ -4866,6 +4863,18 @@
   </si>
   <si>
     <t>Species abundance _ richness _ diversity H'</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Species richness</t>
+  </si>
+  <si>
+    <t>Abundance _ biomass _ Abundance-biomass variable W</t>
   </si>
 </sst>
 </file>
@@ -5372,7 +5381,7 @@
   <dimension ref="A1:AX33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW29" sqref="AW29"/>
+      <selection activeCell="AV37" sqref="AV37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
@@ -6642,7 +6651,7 @@
         <v>239</v>
       </c>
       <c r="AU10" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AV10" t="s">
         <v>199</v>
@@ -6764,7 +6773,7 @@
         <v>239</v>
       </c>
       <c r="AU11" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="AV11" t="s">
         <v>204</v>
@@ -6886,7 +6895,7 @@
         <v>239</v>
       </c>
       <c r="AU12" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AV12" t="s">
         <v>205</v>
@@ -7011,7 +7020,7 @@
         <v>239</v>
       </c>
       <c r="AU13" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AV13" t="s">
         <v>199</v>
@@ -7136,7 +7145,7 @@
         <v>239</v>
       </c>
       <c r="AU14" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="AV14" t="s">
         <v>204</v>
@@ -7261,7 +7270,7 @@
         <v>239</v>
       </c>
       <c r="AU15" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AV15" t="s">
         <v>205</v>
@@ -7517,7 +7526,7 @@
         <v>239</v>
       </c>
       <c r="AU17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV17" t="s">
         <v>200</v>
@@ -7645,7 +7654,7 @@
         <v>239</v>
       </c>
       <c r="AU18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV18" t="s">
         <v>199</v>
@@ -7773,7 +7782,7 @@
         <v>239</v>
       </c>
       <c r="AU19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV19" t="s">
         <v>204</v>
@@ -7904,7 +7913,7 @@
         <v>239</v>
       </c>
       <c r="AU20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV20" t="s">
         <v>200</v>
@@ -8035,7 +8044,7 @@
         <v>239</v>
       </c>
       <c r="AU21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV21" t="s">
         <v>199</v>
@@ -8166,7 +8175,7 @@
         <v>239</v>
       </c>
       <c r="AU22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV22" t="s">
         <v>204</v>
@@ -8294,7 +8303,7 @@
         <v>239</v>
       </c>
       <c r="AU23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AV23" t="s">
         <v>199</v>
@@ -8422,7 +8431,7 @@
         <v>239</v>
       </c>
       <c r="AU24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AV24" t="s">
         <v>203</v>
@@ -8553,7 +8562,7 @@
         <v>239</v>
       </c>
       <c r="AU25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AV25" t="s">
         <v>199</v>
@@ -8684,7 +8693,7 @@
         <v>239</v>
       </c>
       <c r="AU26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AV26" t="s">
         <v>203</v>
@@ -9192,7 +9201,7 @@
         <v>239</v>
       </c>
       <c r="AU31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AV31" t="s">
         <v>199</v>
@@ -9445,7 +9454,7 @@
         <v>239</v>
       </c>
       <c r="AU33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AV33" t="s">
         <v>199</v>
@@ -11575,15 +11584,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -11697,30 +11697,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11734,4 +11735,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Smith.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Smith.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9A9629-67A2-497B-90FC-4EF98938CD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A629138-EDE3-44D1-8D69-85319F2B08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$34</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -3474,7 +3474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="430">
   <si>
     <t>SearchID</t>
   </si>
@@ -5052,7 +5052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5066,12 +5066,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5378,10 +5377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV37" sqref="AV37"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AW38" sqref="AW38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
@@ -5401,70 +5400,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="16" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="14" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="11" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="12" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58">
       <c r="A2" s="2" t="s">
@@ -7412,49 +7411,49 @@
     </row>
     <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E17">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="F17" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H17" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="I17" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J17" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K17" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L17" t="s">
         <v>248</v>
       </c>
       <c r="M17" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="N17" t="s">
         <v>251</v>
       </c>
       <c r="O17" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="P17" t="s">
         <v>248</v>
@@ -7463,25 +7462,25 @@
         <v>21</v>
       </c>
       <c r="S17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X17" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7493,7 +7492,7 @@
         <v>3</v>
       </c>
       <c r="AD17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AF17" t="s">
         <v>266</v>
@@ -7502,22 +7501,16 @@
         <v>107</v>
       </c>
       <c r="AH17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>415</v>
+        <v>134</v>
       </c>
       <c r="AM17" t="s">
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -7525,17 +7518,23 @@
       <c r="AR17" t="s">
         <v>239</v>
       </c>
+      <c r="AS17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>379</v>
+      </c>
       <c r="AU17" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="AV17" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -7609,7 +7608,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -7657,13 +7656,13 @@
         <v>422</v>
       </c>
       <c r="AV18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW18" t="s">
         <v>209</v>
       </c>
       <c r="AX18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -7785,13 +7784,13 @@
         <v>422</v>
       </c>
       <c r="AV19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AW19" t="s">
         <v>209</v>
       </c>
       <c r="AX19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -7889,10 +7888,7 @@
         <v>120</v>
       </c>
       <c r="AI20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK20" t="s">
         <v>148</v>
@@ -7916,13 +7912,13 @@
         <v>422</v>
       </c>
       <c r="AV20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AW20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:50">
@@ -8047,13 +8043,13 @@
         <v>422</v>
       </c>
       <c r="AV21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -8178,54 +8174,54 @@
         <v>422</v>
       </c>
       <c r="AV22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AW22" t="s">
         <v>210</v>
       </c>
       <c r="AX22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B23" t="s">
         <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D23" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E23">
         <v>2001</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="G23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="I23" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="J23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K23" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L23" t="s">
         <v>248</v>
       </c>
       <c r="M23" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="N23" t="s">
         <v>251</v>
@@ -8234,7 +8230,7 @@
         <v>252</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="Q23" t="s">
         <v>21</v>
@@ -8258,7 +8254,7 @@
         <v>216</v>
       </c>
       <c r="Z23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -8270,10 +8266,10 @@
         <v>3</v>
       </c>
       <c r="AD23" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AF23" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AG23" t="s">
         <v>107</v>
@@ -8282,7 +8278,10 @@
         <v>120</v>
       </c>
       <c r="AI23" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>113</v>
       </c>
       <c r="AK23" t="s">
         <v>148</v>
@@ -8303,16 +8302,16 @@
         <v>239</v>
       </c>
       <c r="AU23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV23" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX23" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -8434,13 +8433,13 @@
         <v>423</v>
       </c>
       <c r="AV24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -8526,7 +8525,7 @@
         <v>3</v>
       </c>
       <c r="AD25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF25" t="s">
         <v>254</v>
@@ -8538,10 +8537,7 @@
         <v>120</v>
       </c>
       <c r="AI25" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK25" t="s">
         <v>148</v>
@@ -8565,13 +8561,13 @@
         <v>423</v>
       </c>
       <c r="AV25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -8696,119 +8692,191 @@
         <v>423</v>
       </c>
       <c r="AV26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX26" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:50">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E27">
         <v>2001</v>
       </c>
       <c r="F27" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="G27" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H27" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="I27" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="J27" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="K27" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L27" t="s">
         <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N27" t="s">
         <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="P27" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="Q27" t="s">
         <v>21</v>
       </c>
-      <c r="R27" t="s">
-        <v>86</v>
+      <c r="S27" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" t="s">
+        <v>54</v>
+      </c>
+      <c r="V27" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" t="s">
+        <v>53</v>
+      </c>
+      <c r="X27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>391</v>
       </c>
       <c r="AF27" t="s">
-        <v>266</v>
+        <v>254</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>423</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F28" t="s">
         <v>327</v>
       </c>
       <c r="G28" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H28" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="I28" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="J28" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L28" t="s">
         <v>248</v>
       </c>
       <c r="M28" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N28" t="s">
         <v>251</v>
       </c>
       <c r="O28" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="P28" t="s">
         <v>253</v>
@@ -8816,83 +8884,11 @@
       <c r="Q28" t="s">
         <v>21</v>
       </c>
-      <c r="S28" t="s">
-        <v>24</v>
-      </c>
-      <c r="T28" t="s">
-        <v>46</v>
-      </c>
-      <c r="U28" t="s">
-        <v>57</v>
-      </c>
-      <c r="V28" t="s">
-        <v>41</v>
-      </c>
-      <c r="W28" t="s">
-        <v>214</v>
-      </c>
-      <c r="X28" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA28">
-        <v>2</v>
-      </c>
-      <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
-        <v>2</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>403</v>
+      <c r="R28" t="s">
+        <v>86</v>
       </c>
       <c r="AF28" t="s">
         <v>266</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>415</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>372</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>397</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -8990,10 +8986,7 @@
         <v>120</v>
       </c>
       <c r="AI29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK29" t="s">
         <v>148</v>
@@ -9031,93 +9024,168 @@
     </row>
     <row r="30" spans="1:50">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D30" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E30">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F30" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="G30" t="s">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c r="H30" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I30" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J30" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="L30" t="s">
         <v>248</v>
       </c>
       <c r="M30" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="N30" t="s">
         <v>251</v>
       </c>
       <c r="O30" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
-      <c r="R30" t="s">
-        <v>84</v>
+      <c r="S30" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" t="s">
+        <v>57</v>
+      </c>
+      <c r="V30" t="s">
+        <v>41</v>
+      </c>
+      <c r="W30" t="s">
+        <v>214</v>
+      </c>
+      <c r="X30" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>403</v>
       </c>
       <c r="AF30" t="s">
         <v>266</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>397</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E31">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="F31" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G31" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="H31" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="I31" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J31" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K31" t="s">
         <v>248</v>
@@ -9126,7 +9194,7 @@
         <v>248</v>
       </c>
       <c r="M31" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="N31" t="s">
         <v>251</v>
@@ -9140,77 +9208,11 @@
       <c r="Q31" t="s">
         <v>21</v>
       </c>
-      <c r="S31" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" t="s">
-        <v>44</v>
-      </c>
-      <c r="U31" t="s">
-        <v>52</v>
-      </c>
-      <c r="V31" t="s">
-        <v>39</v>
-      </c>
-      <c r="W31" t="s">
-        <v>214</v>
-      </c>
-      <c r="X31" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA31">
-        <v>3</v>
-      </c>
-      <c r="AB31">
-        <v>2</v>
-      </c>
-      <c r="AC31">
-        <v>2</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>404</v>
+      <c r="R31" t="s">
+        <v>84</v>
       </c>
       <c r="AF31" t="s">
         <v>266</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>402</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>424</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:50">
@@ -9305,13 +9307,13 @@
         <v>107</v>
       </c>
       <c r="AH32" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AI32" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AL32" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AM32" t="s">
         <v>233</v>
@@ -9326,7 +9328,7 @@
         <v>239</v>
       </c>
       <c r="AU32" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="AV32" t="s">
         <v>199</v>
@@ -9335,7 +9337,7 @@
         <v>209</v>
       </c>
       <c r="AX32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:50">
@@ -9430,16 +9432,13 @@
         <v>107</v>
       </c>
       <c r="AH33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AL33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM33" t="s">
         <v>233</v>
@@ -9454,7 +9453,7 @@
         <v>239</v>
       </c>
       <c r="AU33" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="AV33" t="s">
         <v>199</v>
@@ -9463,6 +9462,134 @@
         <v>209</v>
       </c>
       <c r="AX33" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34">
+        <v>1996</v>
+      </c>
+      <c r="F34" t="s">
+        <v>354</v>
+      </c>
+      <c r="G34" t="s">
+        <v>338</v>
+      </c>
+      <c r="H34" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" t="s">
+        <v>355</v>
+      </c>
+      <c r="J34" t="s">
+        <v>356</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="s">
+        <v>357</v>
+      </c>
+      <c r="N34" t="s">
+        <v>251</v>
+      </c>
+      <c r="O34" t="s">
+        <v>252</v>
+      </c>
+      <c r="P34" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" t="s">
+        <v>52</v>
+      </c>
+      <c r="V34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s">
+        <v>214</v>
+      </c>
+      <c r="X34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA34">
+        <v>3</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>380</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>425</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX34" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9477,7 +9604,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q15 P16:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P16:P1048576 Q3:Q15" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -9582,7 +9709,7 @@
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AV3:AV29 AV31:AV1048576</xm:sqref>
+          <xm:sqref>AV32:AV1048576 AV3:AV30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9592,7 +9719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="AF2" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
@@ -9609,70 +9736,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="16" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="14" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="11" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87">
       <c r="A2" s="2" t="s">
@@ -9994,7 +10121,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50">
       <c r="R6" t="s">
@@ -10382,7 +10509,7 @@
       </c>
     </row>
     <row r="19" spans="34:48">
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10585,7 +10712,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51">
+    <row r="33" spans="34:48">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -10605,7 +10732,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51">
+    <row r="34" spans="34:48">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -10618,9 +10745,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51">
+    <row r="35" spans="34:48">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -10634,7 +10760,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51">
+    <row r="36" spans="34:48">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -10642,10 +10768,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51">
+    <row r="37" spans="34:48">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51">
+    <row r="38" spans="34:48">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -10705,51 +10831,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="11" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="12" t="s">
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
     </row>
     <row r="2" spans="1:33" ht="43.5">
       <c r="A2" s="2" t="s">
@@ -11272,7 +11398,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -11578,14 +11704,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -11698,31 +11827,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A463685-2D42-4BF0-AC04-52EB54FE9221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -11738,9 +11857,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Smith.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Smith.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A629138-EDE3-44D1-8D69-85319F2B08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE1B3EA-70D3-4E29-891F-07E3E8424975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -3474,7 +3474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="430">
   <si>
     <t>SearchID</t>
   </si>
@@ -5379,8 +5379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AW38" sqref="AW38"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
@@ -6655,6 +6655,9 @@
       <c r="AV10" t="s">
         <v>199</v>
       </c>
+      <c r="AW10" t="s">
+        <v>208</v>
+      </c>
       <c r="AX10" t="s">
         <v>375</v>
       </c>
@@ -6777,6 +6780,9 @@
       <c r="AV11" t="s">
         <v>204</v>
       </c>
+      <c r="AW11" t="s">
+        <v>208</v>
+      </c>
       <c r="AX11" t="s">
         <v>375</v>
       </c>
@@ -6899,6 +6905,9 @@
       <c r="AV12" t="s">
         <v>205</v>
       </c>
+      <c r="AW12" t="s">
+        <v>208</v>
+      </c>
       <c r="AX12" t="s">
         <v>375</v>
       </c>
@@ -7024,6 +7033,9 @@
       <c r="AV13" t="s">
         <v>199</v>
       </c>
+      <c r="AW13" t="s">
+        <v>208</v>
+      </c>
       <c r="AX13" t="s">
         <v>375</v>
       </c>
@@ -7149,6 +7161,9 @@
       <c r="AV14" t="s">
         <v>204</v>
       </c>
+      <c r="AW14" t="s">
+        <v>208</v>
+      </c>
       <c r="AX14" t="s">
         <v>375</v>
       </c>
@@ -7273,6 +7288,9 @@
       </c>
       <c r="AV15" t="s">
         <v>205</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>208</v>
       </c>
       <c r="AX15" t="s">
         <v>375</v>
@@ -11713,6 +11731,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -11826,12 +11850,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -11841,6 +11859,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A463685-2D42-4BF0-AC04-52EB54FE9221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11854,19 +11887,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>